--- a/Design/Tables/数据总表.xlsx
+++ b/Design/Tables/数据总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="T地形" sheetId="1" r:id="rId1"/>
@@ -15,72 +15,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Texture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞范围矩形，不填则不碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsTextureRorate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpDownCross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以上下穿过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ushort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Texture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞范围矩形，不填则不碰撞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:RECT[X(float),Y(float),Width(float),Height(float)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsTextureRorate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpDownCross</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可以上下穿过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ushort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地形ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地形旋转的角度，顺时针旋转，例如30°为向下旋转30°</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +115,244 @@
   <si>
     <t>锁屏模式，-1代表不能回头，1代表不能继续向前（例如打完某个小BOSS才能继续向前）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:RECT[X(float);Y(float);Width(float);Height(float)][|]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ushort[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFlip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.不翻转 / 1.水平翻转 / 2.垂直翻转 / 3.水平垂直翻转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\01.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\01111.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\11.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\1111.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\1D.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\1E.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\D0.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\D1.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\DD.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\E.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\E1.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\ED.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·低谷\EE.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·高地\01.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·高地\0111.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·高地\11.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·高地\1111.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·高地\1D.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·高地\1E.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·高地\D.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·高地\E.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·高地\E1.png</t>
+  </si>
+  <si>
+    <t>Terrains\戈壁·高地\EE.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\01.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\0111.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\11.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\1111.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\1D.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\1E.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\D.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\D0.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\D1.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\DD.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\E.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\E1.png</t>
+  </si>
+  <si>
+    <t>Terrains\湿地\EE.png</t>
+  </si>
+  <si>
+    <t>Terrains\烽火战场\F-A-0—1.png</t>
+  </si>
+  <si>
+    <t>Terrains\烽火战场\F-A-1—1.png</t>
+  </si>
+  <si>
+    <t>Terrains\烽火战场\F-A-1—2.png</t>
+  </si>
+  <si>
+    <t>Terrains\烽火战场\F-A-1—4.2.png</t>
+  </si>
+  <si>
+    <t>Terrains\烽火战场\F-A-1—5.png</t>
+  </si>
+  <si>
+    <t>Terrains\烽火战场\F-A-2—1.5.png</t>
+  </si>
+  <si>
+    <t>Terrains\烽火战场\F-A-5—1.png</t>
+  </si>
+  <si>
+    <t>Terrains\烽火战场\F-A-5—5.png</t>
+  </si>
+  <si>
+    <t>Terrains\烽火战场\F-A-5—6.png</t>
+  </si>
+  <si>
+    <t>Terrains\烽火战场\F-B-0—1-1#1.png</t>
+  </si>
+  <si>
+    <t>Terrains\烽火战场\F-B-1—1-1#1.png</t>
+  </si>
+  <si>
+    <t>Terrains\秋日草原\01.png</t>
+  </si>
+  <si>
+    <t>Terrains\秋日草原\0111.png</t>
+  </si>
+  <si>
+    <t>Terrains\秋日草原\11.png</t>
+  </si>
+  <si>
+    <t>Terrains\秋日草原\1111.png</t>
+  </si>
+  <si>
+    <t>Terrains\秋日草原\1D.png</t>
+  </si>
+  <si>
+    <t>Terrains\秋日草原\1E.png</t>
+  </si>
+  <si>
+    <t>Terrains\秋日草原\D.png</t>
+  </si>
+  <si>
+    <t>Terrains\秋日草原\D0.png</t>
+  </si>
+  <si>
+    <t>Terrains\秋日草原\D1.png</t>
+  </si>
+  <si>
+    <t>Terrains\秋日草原\DD.png</t>
+  </si>
+  <si>
+    <t>Terrains\秋日草原\E.png</t>
+  </si>
+  <si>
+    <t>Terrains\秋日草原\E1.png</t>
+  </si>
+  <si>
+    <t>Terrains\荒漠\01.png</t>
+  </si>
+  <si>
+    <t>Terrains\荒漠\0111.png</t>
+  </si>
+  <si>
+    <t>Terrains\荒漠\1111.png</t>
+  </si>
+  <si>
+    <t>Terrains\荒漠\1D.png</t>
+  </si>
+  <si>
+    <t>Terrains\荒漠\A11.png</t>
+  </si>
+  <si>
+    <t>Terrains\荒漠\B11.png</t>
+  </si>
+  <si>
+    <t>Terrains\荒漠\C11.png</t>
+  </si>
+  <si>
+    <t>Terrains\荒漠\D.png</t>
+  </si>
+  <si>
+    <t>Terrains\荒漠\E.png</t>
+  </si>
+  <si>
+    <t>Terrains\荒漠\E1.png</t>
+  </si>
+  <si>
+    <t>Terrains\荒漠\EE.png</t>
   </si>
 </sst>
 </file>
@@ -187,8 +401,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -487,66 +729,1403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>155</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>156</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>157</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>160</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>201</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>202</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>203</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>204</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>205</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>207</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>209</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>210</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>251</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>253</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>254</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>255</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>257</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>258</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>259</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>260</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>301</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>302</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>303</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>304</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>305</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>306</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>307</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>308</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>309</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>310</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>311</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>312</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>313</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>351</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>352</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>353</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>354</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>355</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>356</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>357</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>358</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>359</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>360</v>
+      </c>
+      <c r="B72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>361</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>362</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>363</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>401</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>402</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>403</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>404</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>405</v>
+      </c>
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>406</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>407</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>408</v>
+      </c>
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>409</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>410</v>
+      </c>
+      <c r="B85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>411</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>451</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>452</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>453</v>
+      </c>
+      <c r="B89" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>454</v>
+      </c>
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>455</v>
+      </c>
+      <c r="B91" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>456</v>
+      </c>
+      <c r="B92" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>457</v>
+      </c>
+      <c r="B93" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>458</v>
+      </c>
+      <c r="B94" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>459</v>
+      </c>
+      <c r="B95" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>460</v>
+      </c>
+      <c r="B96" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>461</v>
+      </c>
+      <c r="B97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>501</v>
+      </c>
+      <c r="B98" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>502</v>
+      </c>
+      <c r="B99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>503</v>
+      </c>
+      <c r="B100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>504</v>
+      </c>
+      <c r="B101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>505</v>
+      </c>
+      <c r="B102" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>506</v>
+      </c>
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>507</v>
+      </c>
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>508</v>
+      </c>
+      <c r="B105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>509</v>
+      </c>
+      <c r="B106" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>510</v>
+      </c>
+      <c r="B107" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>511</v>
+      </c>
+      <c r="B108" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>512</v>
+      </c>
+      <c r="B109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>551</v>
+      </c>
+      <c r="B110" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>552</v>
+      </c>
+      <c r="B111" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>553</v>
+      </c>
+      <c r="B112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>554</v>
+      </c>
+      <c r="B113" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>555</v>
+      </c>
+      <c r="B114" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>556</v>
+      </c>
+      <c r="B115" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>557</v>
+      </c>
+      <c r="B116" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>558</v>
+      </c>
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>559</v>
+      </c>
+      <c r="B118" t="s">
+        <v>87</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>560</v>
+      </c>
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>561</v>
+      </c>
+      <c r="B120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>562</v>
+      </c>
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>601</v>
+      </c>
+      <c r="B122" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>602</v>
+      </c>
+      <c r="B123" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>603</v>
+      </c>
+      <c r="B124" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>604</v>
+      </c>
+      <c r="B125" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>605</v>
+      </c>
+      <c r="B126" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>606</v>
+      </c>
+      <c r="B127" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>607</v>
+      </c>
+      <c r="B128" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>608</v>
+      </c>
+      <c r="B129" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>609</v>
+      </c>
+      <c r="B130" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>610</v>
+      </c>
+      <c r="B131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>611</v>
+      </c>
+      <c r="B132" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>651</v>
+      </c>
+      <c r="B133" t="s">
+        <v>91</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>652</v>
+      </c>
+      <c r="B134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>653</v>
+      </c>
+      <c r="B135" t="s">
+        <v>93</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>654</v>
+      </c>
+      <c r="B136" t="s">
+        <v>94</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>655</v>
+      </c>
+      <c r="B137" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>656</v>
+      </c>
+      <c r="B138" t="s">
+        <v>96</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>657</v>
+      </c>
+      <c r="B139" t="s">
+        <v>97</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>658</v>
+      </c>
+      <c r="B140" t="s">
+        <v>98</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>659</v>
+      </c>
+      <c r="B141" t="s">
+        <v>99</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>660</v>
+      </c>
+      <c r="B142" t="s">
+        <v>100</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>661</v>
+      </c>
+      <c r="B143" t="s">
+        <v>101</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -554,70 +2133,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Tables/数据总表.xlsx
+++ b/Design/Tables/数据总表.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T地形" sheetId="1" r:id="rId1"/>
     <sheet name="T地图" sheetId="2" r:id="rId2"/>
+    <sheet name="T动作" sheetId="3" r:id="rId3"/>
+    <sheet name="T操作方法" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="163">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +355,215 @@
   </si>
   <si>
     <t>Terrains\荒漠\EE.png</t>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲公英_上劈</t>
+  </si>
+  <si>
+    <t>蒲公英_上升</t>
+  </si>
+  <si>
+    <t>蒲公英_下落</t>
+  </si>
+  <si>
+    <t>蒲公英_冲刺升空斩</t>
+  </si>
+  <si>
+    <t>蒲公英_后空翻踢</t>
+  </si>
+  <si>
+    <t>蒲公英_地面普攻1</t>
+  </si>
+  <si>
+    <t>蒲公英_地面普攻2</t>
+  </si>
+  <si>
+    <t>蒲公英_地面普攻3</t>
+  </si>
+  <si>
+    <t>蒲公英_地面普攻4</t>
+  </si>
+  <si>
+    <t>蒲公英_地面被击飞到落地瞬间</t>
+  </si>
+  <si>
+    <t>蒲公英_地面被定身</t>
+  </si>
+  <si>
+    <t>蒲公英_待机</t>
+  </si>
+  <si>
+    <t>蒲公英_折跃瞬移攻击前段</t>
+  </si>
+  <si>
+    <t>蒲公英_折跃瞬移攻击后段</t>
+  </si>
+  <si>
+    <t>蒲公英_斜向瞬移前段</t>
+  </si>
+  <si>
+    <t>蒲公英_斜向瞬移后段</t>
+  </si>
+  <si>
+    <t>蒲公英_水平瞬移前段</t>
+  </si>
+  <si>
+    <t>蒲公英_水平瞬移后段</t>
+  </si>
+  <si>
+    <t>蒲公英_移动</t>
+  </si>
+  <si>
+    <t>蒲公英_空中普攻1</t>
+  </si>
+  <si>
+    <t>蒲公英_空中普攻2循环</t>
+  </si>
+  <si>
+    <t>蒲公英_空中普攻2起手</t>
+  </si>
+  <si>
+    <t>蒲公英_空中普攻3</t>
+  </si>
+  <si>
+    <t>蒲公英_空中被击飞空中落地瞬间</t>
+  </si>
+  <si>
+    <t>蒲公英_空中被击飞被击飞</t>
+  </si>
+  <si>
+    <t>蒲公英_空中转身下劈</t>
+  </si>
+  <si>
+    <t>蒲公英_落地</t>
+  </si>
+  <si>
+    <t>蒲公英_被击飞落地瞬间后动作</t>
+  </si>
+  <si>
+    <t>蒲公英_起跳</t>
+  </si>
+  <si>
+    <t>蒲公英_跳劈地面起跳攻击</t>
+  </si>
+  <si>
+    <t>蒲公英_跳劈空中下劈下落过程</t>
+  </si>
+  <si>
+    <t>蒲公英_跳劈空中下劈落地</t>
+  </si>
+  <si>
+    <t>蒲公英_跳劈空中下劈起手</t>
+  </si>
+  <si>
+    <t>蒲公英_飞踢空中</t>
+  </si>
+  <si>
+    <t>蒲公英_飞踢落地</t>
+  </si>
+  <si>
+    <t>StatusNeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发动作需要的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum#EActionStatus[普通=1,浮空=2,攻击=4,浮空攻击=2,被击=4,被击浮空=8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放开按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向右方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向左方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ushort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pressed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[,]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住向右移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住向左移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按两下向右跑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按两下向左跑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D,D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -731,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2134,7 +2345,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2200,4 +2411,365 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design/Tables/数据总表.xlsx
+++ b/Design/Tables/数据总表.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T地形" sheetId="1" r:id="rId1"/>
     <sheet name="T地图" sheetId="2" r:id="rId2"/>
     <sheet name="T动作" sheetId="3" r:id="rId3"/>
-    <sheet name="T操作方法" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="146">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,111 +364,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蒲公英_上劈</t>
-  </si>
-  <si>
-    <t>蒲公英_上升</t>
-  </si>
-  <si>
-    <t>蒲公英_下落</t>
-  </si>
-  <si>
-    <t>蒲公英_冲刺升空斩</t>
-  </si>
-  <si>
-    <t>蒲公英_后空翻踢</t>
-  </si>
-  <si>
-    <t>蒲公英_地面普攻1</t>
-  </si>
-  <si>
-    <t>蒲公英_地面普攻2</t>
-  </si>
-  <si>
-    <t>蒲公英_地面普攻3</t>
-  </si>
-  <si>
-    <t>蒲公英_地面普攻4</t>
-  </si>
-  <si>
-    <t>蒲公英_地面被击飞到落地瞬间</t>
-  </si>
-  <si>
-    <t>蒲公英_地面被定身</t>
-  </si>
-  <si>
-    <t>蒲公英_待机</t>
-  </si>
-  <si>
-    <t>蒲公英_折跃瞬移攻击前段</t>
-  </si>
-  <si>
-    <t>蒲公英_折跃瞬移攻击后段</t>
-  </si>
-  <si>
-    <t>蒲公英_斜向瞬移前段</t>
-  </si>
-  <si>
-    <t>蒲公英_斜向瞬移后段</t>
-  </si>
-  <si>
-    <t>蒲公英_水平瞬移前段</t>
-  </si>
-  <si>
-    <t>蒲公英_水平瞬移后段</t>
-  </si>
-  <si>
     <t>蒲公英_移动</t>
   </si>
   <si>
-    <t>蒲公英_空中普攻1</t>
-  </si>
-  <si>
-    <t>蒲公英_空中普攻2循环</t>
-  </si>
-  <si>
-    <t>蒲公英_空中普攻2起手</t>
-  </si>
-  <si>
-    <t>蒲公英_空中普攻3</t>
-  </si>
-  <si>
-    <t>蒲公英_空中被击飞空中落地瞬间</t>
-  </si>
-  <si>
-    <t>蒲公英_空中被击飞被击飞</t>
-  </si>
-  <si>
-    <t>蒲公英_空中转身下劈</t>
-  </si>
-  <si>
-    <t>蒲公英_落地</t>
-  </si>
-  <si>
-    <t>蒲公英_被击飞落地瞬间后动作</t>
-  </si>
-  <si>
-    <t>蒲公英_起跳</t>
-  </si>
-  <si>
-    <t>蒲公英_跳劈地面起跳攻击</t>
-  </si>
-  <si>
-    <t>蒲公英_跳劈空中下劈下落过程</t>
-  </si>
-  <si>
-    <t>蒲公英_跳劈空中下劈落地</t>
-  </si>
-  <si>
-    <t>蒲公英_跳劈空中下劈起手</t>
-  </si>
-  <si>
-    <t>蒲公英_飞踢空中</t>
-  </si>
-  <si>
-    <t>蒲公英_飞踢落地</t>
-  </si>
-  <si>
     <t>StatusNeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,23 +375,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>enum#EActionStatus[普通=1,浮空=2,攻击=4,浮空攻击=2,被击=4,被击浮空=8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pressed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[,]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionNeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D,D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acceleration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定加速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[,]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum#EActionStatus[普通=1,浮空=2,攻击=4,浮空攻击=2,被击=4,被击浮空=8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按住按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按下按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放开按键</t>
+    <t>蒲公英_向右移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum#ETowards[不变=0,向左=1,向右=2,相反=3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色朝向变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住按键，放开时会结束动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用间隔时间，单位秒，若不填则每帧都起作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始作用时间，单位秒，触发时为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用结束时间，单位秒；若不填则为无限时间（动作动画为无限循环播放时）或动作动画播放完成后；若此时间小于等于开始作用时间，则仅触发一次；若此时间大于开始作用时间，则在这个时间后，动作将视为结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲公英_向右跑动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -502,67 +511,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朝向右方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝向左方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ushort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pressed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[,]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按住向右移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按住向左移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按两下向右跑动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按两下向左跑动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D,D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L,L</t>
+    <t>要求前置动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲公英_向左移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲公英_向左跑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定初始速度，不填则继承原始速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2415,357 +2380,266 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="7.125" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="F6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" t="s">
         <v>143</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>144</v>
       </c>
-      <c r="F3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" t="s">
-        <v>162</v>
+      <c r="F9" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Tables/数据总表.xlsx
+++ b/Design/Tables/数据总表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="170">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>蒲公英_地面普攻1</t>
+  </si>
+  <si>
+    <t>蒲公英_地面普攻2</t>
+  </si>
+  <si>
+    <t>蒲公英_地面普攻3</t>
+  </si>
+  <si>
+    <t>蒲公英_地面普攻4</t>
+  </si>
+  <si>
     <t>蒲公英_移动</t>
   </si>
   <si>
@@ -375,14 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum#EActionStatus[普通=1,浮空=2,攻击=4,浮空攻击=2,被击=4,被击浮空=8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按下按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pressed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,6 +399,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ActionNeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,18 +423,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Acceleration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按住按键，放开时会结束动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TimeStart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,6 +524,98 @@
   </si>
   <si>
     <t>设定初始速度，不填则继承原始速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住按键，放开时会结束动作；有按下按键时，按住按键仅作为结束动作的一个条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置角色状态，除了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发动作需要在浮空上升时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发动作需要在浮空下落时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮空说明：若浮空上升和下降都不需要，则为在地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲公英_起跳</t>
+  </si>
+  <si>
+    <t>SpeedX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccelerationX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccelerationY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定初始速度，不填则继承原始速度；正数向下，负数向上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定加速度；正数向下，负数向上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲公英_上升</t>
+  </si>
+  <si>
+    <t>蒲公英_下落</t>
+  </si>
+  <si>
+    <t>蒲公英_落地</t>
+  </si>
+  <si>
+    <t>string[,][;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下按键;逗号隔开是连续指令，分号隔开是并行指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2380,270 +2468,510 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="7.125" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="10.125" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>112</v>
       </c>
-      <c r="H1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="H2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" t="s">
         <v>123</v>
       </c>
-      <c r="M1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P2" t="s">
         <v>125</v>
       </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" t="s">
         <v>120</v>
       </c>
-      <c r="L2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" t="s">
-        <v>128</v>
-      </c>
-      <c r="N2" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="U2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" t="s">
         <v>131</v>
       </c>
-      <c r="E3" t="s">
+      <c r="Q3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R3" t="s">
+        <v>145</v>
+      </c>
+      <c r="S3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" t="s">
+        <v>162</v>
+      </c>
+      <c r="U3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(AND(C4=1,D4=1),"浮空",IF(C4=1,"浮空上升",IF(D4=1,"浮空下降","地面")))</f>
+        <v>地面</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
         <v>108</v>
       </c>
-      <c r="F3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4">
+      <c r="Q4">
         <v>2</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>139</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5">
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E9" si="0">IF(AND(C5=1,D5=1),"浮空",IF(C5=1,"浮空上升",IF(D5=1,"浮空下降","地面")))</f>
+        <v>地面</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5">
+      <c r="P5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="R5">
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>139</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>地面</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>140</v>
       </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>142</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>地面</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
+      <c r="P7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>143</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>地面</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
+      <c r="P8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>9.6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>143</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>地面</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>144</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(AND(C11=1,D11=1),"浮空",IF(C11=1,"浮空上升",IF(D11=1,"浮空下降","地面")))</f>
+        <v>地面</v>
+      </c>
+      <c r="H11" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" t="s">
+        <v>157</v>
+      </c>
+      <c r="U11">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(AND(C12=1,D12=1),"浮空",IF(C12=1,"浮空上升",IF(D12=1,"浮空下降","地面")))</f>
+        <v>浮空上升</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(AND(C13=1,D13=1),"浮空",IF(C13=1,"浮空上升",IF(D13=1,"浮空下降","地面")))</f>
+        <v>浮空下降</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>166</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(AND(C14=1,D14=1),"浮空",IF(C14=1,"浮空上升",IF(D14=1,"浮空下降","地面")))</f>
+        <v>地面</v>
+      </c>
+      <c r="I14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>167</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>